--- a/input_data_sheets/request_details.xlsx
+++ b/input_data_sheets/request_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sailpoint\react-app2\input_data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF491A4B-D24E-44F9-BBCC-F1317C241D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5A8ED-8D2D-44F8-A405-FF54D23E9CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D18A520-C00E-43CC-A4C9-BED9287C36A7}"/>
   </bookViews>
